--- a/data/2018/rep_argentina.xlsx
+++ b/data/2018/rep_argentina.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
   <si>
     <t xml:space="preserve">Total </t>
   </si>
@@ -67,15 +67,6 @@
     <t>Via Lenta</t>
   </si>
   <si>
-    <t>REP ARGENTINA, 16h30-19h30</t>
-  </si>
-  <si>
-    <t>AUTOS</t>
-  </si>
-  <si>
-    <t>BICI</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -92,6 +83,9 @@
   </si>
   <si>
     <t>Automóvel</t>
+  </si>
+  <si>
+    <t>Veiculo</t>
   </si>
 </sst>
 </file>
@@ -579,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -593,13 +587,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
@@ -616,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,10 +1059,10 @@
         <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,10 +1073,10 @@
         <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,10 +1087,10 @@
         <v>269</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,10 +1101,10 @@
         <v>350</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,10 +1115,10 @@
         <v>420</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,10 +1129,10 @@
         <v>433</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,10 +1143,10 @@
         <v>518</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,10 +1158,10 @@
         <v>264</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,10 +1172,10 @@
         <v>225</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,10 +1186,10 @@
         <v>162</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,10 +1200,10 @@
         <v>325</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,10 +1214,10 @@
         <v>325</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,10 +1228,10 @@
         <v>441</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,10 +1242,10 @@
         <v>518</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,10 +1256,10 @@
         <v>537</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,10 +1271,10 @@
         <v>548</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,10 +1285,10 @@
         <v>2008</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,10 +1313,10 @@
         <v>2247</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,10 +1327,10 @@
         <v>2222</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,10 +1341,10 @@
         <v>2085</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,10 +1355,10 @@
         <v>2080</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,10 +1369,10 @@
         <v>2521</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,10 +1384,10 @@
         <v>2376</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,10 +1398,10 @@
         <v>4094</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1426,10 @@
         <v>2634</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,10 +1440,10 @@
         <v>2655</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +1454,10 @@
         <v>2894</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,10 +1468,10 @@
         <v>1921</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,10 +1482,10 @@
         <v>2135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,10 +1497,10 @@
         <v>2036</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1516,61 +1510,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>2596</v>
+      </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>2016</v>
-      </c>
-      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2018</v>
       </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>2596</v>
-      </c>
-      <c r="E4">
+      <c r="B3">
         <f>981+1150</f>
         <v>2131</v>
       </c>
-      <c r="F4">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
         <f>1186+1095</f>
         <v>2281</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
         <f>225+21+51+6+13+4</f>
         <v>320</v>
       </c>
-      <c r="E5">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
         <f>149+291</f>
         <v>440</v>
       </c>
-      <c r="F5">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
         <f>170+292</f>
         <v>462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
